--- a/AdditionalMetrics/AdditionalMetricsExperiments_4_5_6_Architecture_2_Server.xlsx
+++ b/AdditionalMetrics/AdditionalMetricsExperiments_4_5_6_Architecture_2_Server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\INVESTIGACION\PAPERS\2024 ECSA\EnergyConsumption_IoTMonitoringEdgeArchitectures\AdditionalMetrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\INVESTIGACION\PAPERS\ACEPTADOS\2024 ECSA\EnergyConsumption_IoTMonitoringEdgeArchitectures\AdditionalMetrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1808,9 +1808,6 @@
     <t>T_mem_RAM (bytes)</t>
   </si>
   <si>
-    <t>RSS (Resisden Set Size) (bytes)</t>
-  </si>
-  <si>
     <t>VSZ (Virtual Set Size) (bytes)</t>
   </si>
   <si>
@@ -1827,6 +1824,9 @@
   </si>
   <si>
     <t>Experiment 5</t>
+  </si>
+  <si>
+    <t>RSS (Resident Set Size) (bytes)</t>
   </si>
 </sst>
 </file>
@@ -1834,7 +1834,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="hh&quot;:&quot;mm&quot;:&quot;ss"/>
+    <numFmt numFmtId="164" formatCode="hh&quot;:&quot;mm&quot;:&quot;ss"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -2031,8 +2031,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent" xfId="3"/>
@@ -2339,24 +2339,24 @@
   <dimension ref="A1:H962"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K232" sqref="K232"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2378,16 +2378,16 @@
         <v>584</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>587</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5278,7 +5278,7 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -9313,7 +9313,7 @@
     </row>
     <row r="537" spans="1:8">
       <c r="A537" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="538" spans="1:8">
